--- a/config_ios提审/task_fish_daily_server.xlsx
+++ b/config_ios提审/task_fish_daily_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -1197,8 +1197,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M176"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1761,7 +1761,7 @@
         <v>12514</v>
       </c>
       <c r="B15" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" s="22" t="s">
         <v>127</v>
@@ -2730,7 +2730,7 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2740,7 +2740,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F29" sqref="F29"/>
+      <selection pane="bottomLeft" activeCell="H15" sqref="A15:H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4731,7 +4731,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>

--- a/config_ios提审/task_fish_daily_server.xlsx
+++ b/config_ios提审/task_fish_daily_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TTHLBY\HuanLe_doc\config_ios提审\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_ios提审\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="188">
   <si>
     <t>id|任务id</t>
   </si>
@@ -594,14 +594,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>28,29,30,31,32,33,34,35,36,37</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>参与3种不同的游戏</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>shop_gold_sum</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -614,67 +606,123 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>enter_game_xiaoxiaole</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>开启5个幸运彩贝</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>condition_id|来源的条件id</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>|说明</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>enter_game_xiaoxiaole_shuihu</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>enter_game_xiaoxiaole_caishen</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>enter_game_zajindan</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>enter_game_tantanle</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>enter_game_jykp</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>source_add_only_once_task</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>enter_game_guess_apple</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>enter_buyu_game</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>enter_buyu_3d_game</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>complete_caibei_game</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_3d_fish_summon_fish</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>在捕鱼中累计赢金50万</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>21</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>28,29,30,31,32,33,34,35,36,37</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>xiaoxiaole_award</t>
+  </si>
+  <si>
+    <t>xiaoxiaole_shuihu_award</t>
+  </si>
+  <si>
+    <t>xiaoxiaole_caishen_award</t>
+  </si>
+  <si>
+    <t>tantanle_award</t>
+  </si>
+  <si>
+    <t>zajindan_award</t>
+  </si>
+  <si>
+    <t>jykp_award</t>
+  </si>
+  <si>
     <t>fish_coin</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>enter_game_xiaoxiaole</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>开启5个幸运彩贝</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>condition_id|来源的条件id</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>|说明</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>enter_game_xiaoxiaole_shuihu</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>enter_game_xiaoxiaole_caishen</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>enter_game_zajindan</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>enter_game_tantanle</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>enter_game_jykp</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>source_add_only_once_task</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>enter_game_guess_apple</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>enter_buyu_game</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>enter_buyu_3d_game</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>complete_caibei_game</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>task_13000</t>
+  </si>
+  <si>
+    <t>shop_gold_sum</t>
+  </si>
+  <si>
+    <t>shop_gold_sum</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -686,19 +734,71 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>jing_bi</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>jing_bi</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>jing_bi</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_3d_fish_summon_fish</t>
+    <t>fish_game_id</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>game_id</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用任务捕鱼技能3次</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D捕鱼中使用技能3次</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D捕鱼中累计捕鱼10条</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D捕鱼中累计开炮1000次</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计开炮1000炮</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>在3d捕鱼游戏中击杀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>条彩金鱼</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>捕鱼累计在线90分钟</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D捕鱼中累计在线90分钟</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计捕鱼100条</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -771,7 +871,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -782,12 +882,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF8DB4E2"/>
         <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -836,7 +930,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -863,12 +957,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -881,43 +969,68 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1195,10 +1308,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M176"/>
+  <dimension ref="A1:M180"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1224,7 +1337,7 @@
     <col min="19" max="16384" width="11" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="14" customFormat="1" ht="27" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1272,10 +1385,10 @@
       <c r="B2" s="6">
         <v>0</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="13" t="s">
         <v>137</v>
       </c>
       <c r="E2" s="7" t="s">
@@ -1351,7 +1464,7 @@
       <c r="B4" s="6">
         <v>0</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="13" t="s">
         <v>126</v>
       </c>
       <c r="D4" s="7" t="s">
@@ -1661,10 +1774,10 @@
       <c r="D12" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="E12" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="F12" s="15" t="s">
+      <c r="F12" s="13" t="s">
         <v>123</v>
       </c>
       <c r="G12" s="6">
@@ -1687,31 +1800,31 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="21">
+      <c r="A13" s="16">
         <v>12512</v>
       </c>
-      <c r="B13" s="21">
-        <v>1</v>
-      </c>
-      <c r="C13" s="22" t="s">
+      <c r="B13" s="16">
+        <v>1</v>
+      </c>
+      <c r="C13" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="D13" s="22" t="s">
+      <c r="D13" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="E13" s="22" t="s">
+      <c r="E13" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="F13" s="22" t="s">
+      <c r="F13" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="G13" s="21">
+      <c r="G13" s="16">
         <v>12512</v>
       </c>
-      <c r="H13" s="21" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13" s="21">
+      <c r="H13" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="I13" s="16">
         <v>1</v>
       </c>
       <c r="J13" s="6">
@@ -1721,242 +1834,242 @@
         <v>32503651200</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="21">
+    <row r="14" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="23">
         <v>12513</v>
       </c>
-      <c r="B14" s="21">
-        <v>1</v>
-      </c>
-      <c r="C14" s="22" t="s">
+      <c r="B14" s="23">
+        <v>0</v>
+      </c>
+      <c r="C14" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="D14" s="22" t="s">
-        <v>114</v>
-      </c>
-      <c r="E14" s="22" t="s">
+      <c r="D14" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="E14" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="F14" s="22" t="s">
+      <c r="F14" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="G14" s="21">
+      <c r="G14" s="23">
         <v>12513</v>
       </c>
-      <c r="H14" s="21" t="b">
-        <v>1</v>
-      </c>
-      <c r="I14" s="21">
-        <v>1</v>
-      </c>
-      <c r="J14" s="6">
+      <c r="H14" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="I14" s="23">
+        <v>1</v>
+      </c>
+      <c r="J14" s="23">
         <v>946677600</v>
       </c>
-      <c r="K14" s="6">
+      <c r="K14" s="23">
         <v>32503651200</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="21">
+    <row r="15" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="23">
         <v>12514</v>
       </c>
-      <c r="B15" s="21">
+      <c r="B15" s="23">
         <v>0</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="D15" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="E15" s="22" t="s">
+      <c r="E15" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="F15" s="22" t="s">
+      <c r="F15" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="G15" s="21">
+      <c r="G15" s="23">
         <v>12514</v>
       </c>
-      <c r="H15" s="21" t="b">
-        <v>1</v>
-      </c>
-      <c r="I15" s="21">
-        <v>1</v>
-      </c>
-      <c r="J15" s="6">
+      <c r="H15" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="I15" s="23">
+        <v>1</v>
+      </c>
+      <c r="J15" s="23">
         <v>946677600</v>
       </c>
-      <c r="K15" s="6">
+      <c r="K15" s="23">
         <v>32503651200</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="21">
+    <row r="16" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="23">
         <v>12515</v>
       </c>
-      <c r="B16" s="21">
-        <v>1</v>
-      </c>
-      <c r="C16" s="22" t="s">
+      <c r="B16" s="23">
+        <v>0</v>
+      </c>
+      <c r="C16" s="24" t="s">
         <v>128</v>
       </c>
-      <c r="D16" s="22" t="s">
+      <c r="D16" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="E16" s="22" t="s">
+      <c r="E16" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="F16" s="22" t="s">
+      <c r="F16" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="G16" s="21">
+      <c r="G16" s="23">
         <v>12515</v>
       </c>
-      <c r="H16" s="21" t="b">
-        <v>1</v>
-      </c>
-      <c r="I16" s="21">
-        <v>1</v>
-      </c>
-      <c r="J16" s="6">
+      <c r="H16" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="I16" s="23">
+        <v>1</v>
+      </c>
+      <c r="J16" s="23">
         <v>946677600</v>
       </c>
-      <c r="K16" s="6">
+      <c r="K16" s="23">
         <v>32503651200</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="21">
+    <row r="17" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="16">
         <v>12516</v>
       </c>
-      <c r="B17" s="21">
-        <v>1</v>
-      </c>
-      <c r="C17" s="22" t="s">
+      <c r="B17" s="16">
+        <v>1</v>
+      </c>
+      <c r="C17" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="D17" s="22" t="s">
+      <c r="D17" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="E17" s="26" t="s">
+      <c r="E17" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="F17" s="22" t="s">
+      <c r="F17" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="G17" s="21">
+      <c r="G17" s="16">
         <v>12516</v>
       </c>
-      <c r="H17" s="21" t="b">
-        <v>1</v>
-      </c>
-      <c r="I17" s="21">
-        <v>1</v>
-      </c>
-      <c r="J17" s="6">
+      <c r="H17" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="I17" s="16">
+        <v>1</v>
+      </c>
+      <c r="J17" s="16">
         <v>946677600</v>
       </c>
-      <c r="K17" s="6">
+      <c r="K17" s="16">
         <v>32503651200</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="21">
+    <row r="18" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="23">
         <v>12517</v>
       </c>
-      <c r="B18" s="21">
-        <v>1</v>
-      </c>
-      <c r="C18" s="22" t="s">
+      <c r="B18" s="23">
+        <v>0</v>
+      </c>
+      <c r="C18" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="D18" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="E18" s="26" t="s">
+      <c r="D18" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="E18" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="F18" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="G18" s="21">
+      <c r="F18" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="G18" s="23">
         <v>12517</v>
       </c>
-      <c r="H18" s="21" t="b">
-        <v>1</v>
-      </c>
-      <c r="I18" s="21">
-        <v>1</v>
-      </c>
-      <c r="J18" s="6">
+      <c r="H18" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="I18" s="23">
+        <v>1</v>
+      </c>
+      <c r="J18" s="23">
         <v>946677600</v>
       </c>
-      <c r="K18" s="6">
+      <c r="K18" s="23">
         <v>32503651200</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="21">
+    <row r="19" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="23">
         <v>12518</v>
       </c>
-      <c r="B19" s="21">
-        <v>1</v>
-      </c>
-      <c r="C19" s="22" t="s">
+      <c r="B19" s="23">
+        <v>0</v>
+      </c>
+      <c r="C19" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="D19" s="22" t="s">
-        <v>153</v>
-      </c>
-      <c r="E19" s="22" t="s">
+      <c r="D19" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="E19" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="F19" s="22" t="s">
+      <c r="F19" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="G19" s="21">
+      <c r="G19" s="23">
         <v>12518</v>
       </c>
-      <c r="H19" s="21" t="b">
-        <v>1</v>
-      </c>
-      <c r="I19" s="21">
-        <v>1</v>
-      </c>
-      <c r="J19" s="6">
+      <c r="H19" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="I19" s="23">
+        <v>1</v>
+      </c>
+      <c r="J19" s="23">
         <v>946677600</v>
       </c>
-      <c r="K19" s="6">
+      <c r="K19" s="23">
         <v>32503651200</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="21">
+      <c r="A20" s="16">
         <v>12519</v>
       </c>
-      <c r="B20" s="21">
-        <v>1</v>
-      </c>
-      <c r="C20" s="22" t="s">
+      <c r="B20" s="16">
+        <v>1</v>
+      </c>
+      <c r="C20" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="D20" s="22" t="s">
+      <c r="D20" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="E20" s="22" t="s">
+      <c r="E20" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="F20" s="22" t="s">
+      <c r="F20" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="G20" s="21">
+      <c r="G20" s="16">
         <v>12519</v>
       </c>
-      <c r="H20" s="21" t="b">
-        <v>1</v>
-      </c>
-      <c r="I20" s="21">
+      <c r="H20" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="I20" s="16">
         <v>1</v>
       </c>
       <c r="J20" s="6">
@@ -1966,55 +2079,195 @@
         <v>32503651200</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="6">
+    <row r="21" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="16">
+        <v>12520</v>
+      </c>
+      <c r="B21" s="16">
+        <v>1</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="E21" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" s="16">
+        <v>12520</v>
+      </c>
+      <c r="H21" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="I21" s="16">
+        <v>1</v>
+      </c>
+      <c r="J21" s="16">
+        <v>946677600</v>
+      </c>
+      <c r="K21" s="16">
+        <v>32503651200</v>
+      </c>
+      <c r="L21" s="16">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="16">
+        <v>12521</v>
+      </c>
+      <c r="B22" s="16">
+        <v>1</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22" s="16">
+        <v>12521</v>
+      </c>
+      <c r="H22" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="I22" s="16">
+        <v>1</v>
+      </c>
+      <c r="J22" s="16">
+        <v>946677600</v>
+      </c>
+      <c r="K22" s="16">
+        <v>32503651200</v>
+      </c>
+      <c r="L22" s="16">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="16">
+        <v>12522</v>
+      </c>
+      <c r="B23" s="16">
+        <v>1</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="E23" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" s="16">
+        <v>12522</v>
+      </c>
+      <c r="H23" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="I23" s="16">
+        <v>1</v>
+      </c>
+      <c r="J23" s="16">
+        <v>946677600</v>
+      </c>
+      <c r="K23" s="16">
+        <v>32503651200</v>
+      </c>
+      <c r="L23" s="16">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="16">
+        <v>12523</v>
+      </c>
+      <c r="B24" s="16">
+        <v>1</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="E24" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" s="16">
+        <v>12523</v>
+      </c>
+      <c r="H24" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="I24" s="16">
+        <v>1</v>
+      </c>
+      <c r="J24" s="16">
+        <v>946677600</v>
+      </c>
+      <c r="K24" s="16">
+        <v>32503651200</v>
+      </c>
+      <c r="L24" s="16">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="16">
         <v>13000</v>
       </c>
-      <c r="B21" s="6">
-        <v>1</v>
-      </c>
-      <c r="C21" s="7" t="s">
+      <c r="B25" s="16">
+        <v>1</v>
+      </c>
+      <c r="C25" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D25" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="E25" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="F21" s="6" t="s">
+      <c r="F25" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="G21" s="6">
+      <c r="G25" s="16">
         <v>13000</v>
       </c>
-      <c r="H21" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I21" s="6">
-        <v>1</v>
-      </c>
-      <c r="J21" s="6">
+      <c r="H25" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="I25" s="16">
+        <v>1</v>
+      </c>
+      <c r="J25" s="16">
         <v>946677600</v>
       </c>
-      <c r="K21" s="6">
+      <c r="K25" s="16">
         <v>32503651200</v>
       </c>
-      <c r="L21" s="6">
+      <c r="L25" s="16">
         <v>-1</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="G22" s="1"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="G23" s="1"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="G24" s="1"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="G26" s="1"/>
@@ -2037,69 +2290,61 @@
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G35" s="1"/>
     </row>
-    <row r="36" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G37" s="1"/>
     </row>
-    <row r="38" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G39" s="1"/>
     </row>
-    <row r="40" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G40" s="1"/>
     </row>
-    <row r="41" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G41" s="1"/>
     </row>
-    <row r="42" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G42" s="1"/>
     </row>
-    <row r="43" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G43" s="1"/>
     </row>
-    <row r="44" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G44" s="1"/>
     </row>
-    <row r="45" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G45" s="1"/>
     </row>
-    <row r="46" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G46" s="1"/>
     </row>
-    <row r="47" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G47" s="1"/>
     </row>
-    <row r="48" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C48" s="8"/>
-      <c r="D48" s="8"/>
+    <row r="48" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G48" s="1"/>
     </row>
     <row r="49" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C49" s="8"/>
-      <c r="D49" s="8"/>
       <c r="G49" s="1"/>
     </row>
     <row r="50" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C50" s="8"/>
-      <c r="D50" s="8"/>
       <c r="G50" s="1"/>
     </row>
     <row r="51" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C51" s="8"/>
-      <c r="D51" s="8"/>
       <c r="G51" s="1"/>
     </row>
     <row r="52" spans="3:7" x14ac:dyDescent="0.2">
@@ -2726,6 +2971,26 @@
       <c r="C176" s="8"/>
       <c r="D176" s="8"/>
       <c r="G176" s="1"/>
+    </row>
+    <row r="177" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C177" s="8"/>
+      <c r="D177" s="8"/>
+      <c r="G177" s="1"/>
+    </row>
+    <row r="178" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C178" s="8"/>
+      <c r="D178" s="8"/>
+      <c r="G178" s="1"/>
+    </row>
+    <row r="179" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C179" s="8"/>
+      <c r="D179" s="8"/>
+      <c r="G179" s="1"/>
+    </row>
+    <row r="180" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C180" s="8"/>
+      <c r="D180" s="8"/>
+      <c r="G180" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -2740,7 +3005,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H15" sqref="A15:H15"/>
+      <selection pane="bottomLeft" activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2778,7 +3043,7 @@
         <v>43</v>
       </c>
       <c r="H1" s="5"/>
-      <c r="I1" s="13"/>
+      <c r="I1" s="11"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
@@ -3044,231 +3309,312 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="20">
+    <row r="13" spans="1:9" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="15">
         <v>12</v>
       </c>
-      <c r="B13" s="21">
+      <c r="B13" s="16">
         <v>12512</v>
       </c>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20">
+      <c r="C13" s="15"/>
+      <c r="D13" s="15">
         <v>12</v>
       </c>
-      <c r="E13" s="20">
-        <v>1</v>
-      </c>
-      <c r="F13" s="21">
+      <c r="E13" s="15">
+        <v>1</v>
+      </c>
+      <c r="F13" s="16">
         <v>1001</v>
       </c>
-      <c r="G13" s="20" t="s">
+      <c r="G13" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="H13" s="22" t="s">
+      <c r="H13" s="17" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="20">
+    <row r="14" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="26">
         <v>13</v>
       </c>
-      <c r="B14" s="21">
+      <c r="B14" s="23">
         <v>12513</v>
       </c>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20">
+      <c r="C14" s="26"/>
+      <c r="D14" s="26">
         <v>13</v>
       </c>
-      <c r="E14" s="20">
+      <c r="E14" s="26">
         <v>500000</v>
       </c>
-      <c r="F14" s="21">
+      <c r="F14" s="23">
         <v>1002</v>
       </c>
-      <c r="G14" s="20" t="s">
+      <c r="G14" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="H14" s="22" t="s">
+      <c r="H14" s="24" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="20">
+    <row r="15" spans="1:9" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="15">
         <v>14</v>
       </c>
-      <c r="B15" s="21">
+      <c r="B15" s="16">
         <v>12514</v>
       </c>
-      <c r="C15" s="23"/>
-      <c r="D15" s="20">
+      <c r="C15" s="18"/>
+      <c r="D15" s="15">
         <v>14</v>
       </c>
-      <c r="E15" s="20">
-        <v>1</v>
-      </c>
-      <c r="F15" s="21">
+      <c r="E15" s="15">
+        <v>1</v>
+      </c>
+      <c r="F15" s="16">
         <v>1003</v>
       </c>
-      <c r="G15" s="20" t="s">
+      <c r="G15" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="H15" s="22" t="s">
+      <c r="H15" s="17" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="20">
+    <row r="16" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="26">
         <v>15</v>
       </c>
-      <c r="B16" s="21">
+      <c r="B16" s="23">
         <v>12515</v>
       </c>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20">
+      <c r="C16" s="26"/>
+      <c r="D16" s="26">
         <v>15</v>
       </c>
-      <c r="E16" s="20">
+      <c r="E16" s="26">
         <v>2</v>
       </c>
-      <c r="F16" s="21">
+      <c r="F16" s="23">
         <v>1004</v>
       </c>
-      <c r="G16" s="20" t="s">
+      <c r="G16" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="H16" s="22" t="s">
+      <c r="H16" s="24" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="20">
+    <row r="17" spans="1:8" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="26">
         <v>16</v>
       </c>
-      <c r="B17" s="21">
+      <c r="B17" s="23">
         <v>12516</v>
       </c>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20">
+      <c r="C17" s="26"/>
+      <c r="D17" s="26">
         <v>16</v>
       </c>
-      <c r="E17" s="20">
-        <v>2</v>
-      </c>
-      <c r="F17" s="21">
+      <c r="E17" s="26">
+        <v>3</v>
+      </c>
+      <c r="F17" s="23">
         <v>1005</v>
       </c>
-      <c r="G17" s="20" t="s">
+      <c r="G17" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="H17" s="22" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="18">
+      <c r="H17" s="25" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="26">
         <v>17</v>
       </c>
-      <c r="B18" s="16">
+      <c r="B18" s="23">
         <v>12517</v>
       </c>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18">
+      <c r="C18" s="26"/>
+      <c r="D18" s="26">
         <v>17</v>
       </c>
-      <c r="E18" s="18">
+      <c r="E18" s="26">
         <v>3</v>
       </c>
-      <c r="F18" s="16">
+      <c r="F18" s="23">
         <v>1006</v>
       </c>
-      <c r="G18" s="18" t="s">
+      <c r="G18" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="H18" s="17" t="s">
+      <c r="H18" s="24" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="18">
+    <row r="19" spans="1:8" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="26">
         <v>18</v>
       </c>
-      <c r="B19" s="16">
+      <c r="B19" s="23">
         <v>12518</v>
       </c>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18">
+      <c r="C19" s="26"/>
+      <c r="D19" s="26">
         <v>18</v>
       </c>
-      <c r="E19" s="18">
+      <c r="E19" s="26">
         <v>5</v>
       </c>
-      <c r="F19" s="16">
+      <c r="F19" s="23">
         <v>1007</v>
       </c>
-      <c r="G19" s="18" t="s">
+      <c r="G19" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="H19" s="17" t="s">
+      <c r="H19" s="24" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="20">
+    <row r="20" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="15">
         <v>19</v>
       </c>
-      <c r="B20" s="21">
+      <c r="B20" s="16">
         <v>12519</v>
       </c>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20">
+      <c r="C20" s="15"/>
+      <c r="D20" s="15">
         <v>19</v>
       </c>
-      <c r="E20" s="20">
-        <v>1</v>
-      </c>
-      <c r="F20" s="21">
+      <c r="E20" s="15">
+        <v>1</v>
+      </c>
+      <c r="F20" s="16">
         <v>1008</v>
       </c>
-      <c r="G20" s="20" t="s">
+      <c r="G20" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="H20" s="22" t="s">
+      <c r="H20" s="17" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
+    <row r="21" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="15">
         <v>20</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="16">
+        <v>12520</v>
+      </c>
+      <c r="C21" s="19"/>
+      <c r="D21" s="15">
+        <v>20</v>
+      </c>
+      <c r="E21" s="20">
+        <v>3</v>
+      </c>
+      <c r="F21" s="16">
+        <v>1009</v>
+      </c>
+      <c r="G21" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="H21" s="20" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="15">
+        <v>21</v>
+      </c>
+      <c r="B22" s="16">
+        <v>12521</v>
+      </c>
+      <c r="C22" s="19"/>
+      <c r="D22" s="15">
+        <v>21</v>
+      </c>
+      <c r="E22" s="20">
+        <v>10</v>
+      </c>
+      <c r="F22" s="16">
+        <v>1010</v>
+      </c>
+      <c r="G22" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="H22" s="20" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="15">
+        <v>22</v>
+      </c>
+      <c r="B23" s="16">
+        <v>12522</v>
+      </c>
+      <c r="C23" s="19"/>
+      <c r="D23" s="15">
+        <v>22</v>
+      </c>
+      <c r="E23" s="20">
+        <v>1000</v>
+      </c>
+      <c r="F23" s="16">
+        <v>1011</v>
+      </c>
+      <c r="G23" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="H23" s="20" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="15">
+        <v>23</v>
+      </c>
+      <c r="B24" s="16">
+        <v>12523</v>
+      </c>
+      <c r="C24" s="19"/>
+      <c r="D24" s="15">
+        <v>23</v>
+      </c>
+      <c r="E24" s="20">
+        <v>5400</v>
+      </c>
+      <c r="F24" s="16">
+        <v>1012</v>
+      </c>
+      <c r="G24" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="H24" s="20" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="15">
+        <v>24</v>
+      </c>
+      <c r="B25" s="16">
         <v>13000</v>
       </c>
-      <c r="D21" s="1">
-        <v>20</v>
-      </c>
-      <c r="E21" s="10" t="s">
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="F21" s="11" t="s">
+      <c r="F25" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="G25" s="15" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F22" s="6"/>
-      <c r="H22" s="1"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F23" s="6"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F24" s="6"/>
-      <c r="H24" s="1"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F25" s="6"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F27" s="6"/>
@@ -3278,7 +3624,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F29" s="6"/>
-      <c r="H29" s="12"/>
+      <c r="H29" s="10"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F30" s="6"/>
@@ -3304,7 +3650,7 @@
     </row>
     <row r="37" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F37" s="6"/>
-      <c r="H37" s="12"/>
+      <c r="H37" s="10"/>
     </row>
     <row r="38" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F38" s="6"/>
@@ -3330,7 +3676,7 @@
     </row>
     <row r="45" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F45" s="6"/>
-      <c r="H45" s="12"/>
+      <c r="H45" s="10"/>
     </row>
     <row r="46" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F46" s="6"/>
@@ -3356,7 +3702,7 @@
     </row>
     <row r="53" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F53" s="6"/>
-      <c r="H53" s="12"/>
+      <c r="H53" s="10"/>
     </row>
     <row r="54" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F54" s="6"/>
@@ -3382,7 +3728,7 @@
     </row>
     <row r="61" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F61" s="6"/>
-      <c r="H61" s="12"/>
+      <c r="H61" s="10"/>
     </row>
     <row r="62" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F62" s="6"/>
@@ -3408,7 +3754,7 @@
     </row>
     <row r="69" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F69" s="6"/>
-      <c r="H69" s="12"/>
+      <c r="H69" s="10"/>
     </row>
     <row r="70" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F70" s="6"/>
@@ -3434,7 +3780,7 @@
     </row>
     <row r="77" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F77" s="6"/>
-      <c r="H77" s="12"/>
+      <c r="H77" s="10"/>
     </row>
     <row r="78" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F78" s="6"/>
@@ -3457,7 +3803,7 @@
     </row>
     <row r="84" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F84" s="6"/>
-      <c r="H84" s="12"/>
+      <c r="H84" s="10"/>
     </row>
     <row r="85" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F85" s="6"/>
@@ -3480,7 +3826,7 @@
     </row>
     <row r="91" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F91" s="6"/>
-      <c r="H91" s="12"/>
+      <c r="H91" s="10"/>
     </row>
     <row r="92" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F92" s="6"/>
@@ -3776,16 +4122,16 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I43"/>
+  <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27:D35"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3805,14 +4151,14 @@
       <c r="C1" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="29" t="s">
-        <v>154</v>
+      <c r="D1" s="21" t="s">
+        <v>151</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="29" t="s">
-        <v>155</v>
+      <c r="F1" s="21" t="s">
+        <v>152</v>
       </c>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
@@ -3825,7 +4171,7 @@
       <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="14" t="s">
         <v>136</v>
       </c>
       <c r="D2" s="7">
@@ -3839,7 +4185,7 @@
       <c r="B3" s="1">
         <v>1</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="14" t="s">
         <v>138</v>
       </c>
       <c r="D3" s="7">
@@ -4028,7 +4374,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -4042,7 +4388,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -4056,7 +4402,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -4070,277 +4416,398 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="20">
+    <row r="20" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="15">
         <v>19</v>
       </c>
-      <c r="B20" s="20">
+      <c r="B20" s="15">
         <v>12</v>
       </c>
-      <c r="C20" s="23" t="s">
+      <c r="C20" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="D20" s="21">
+      <c r="D20" s="16">
         <v>1015</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="20">
+    <row r="21" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="15">
         <v>20</v>
       </c>
-      <c r="B21" s="20">
+      <c r="B21" s="15">
         <v>12</v>
       </c>
-      <c r="C21" s="23" t="s">
+      <c r="C21" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="D21" s="21">
+      <c r="D21" s="16">
         <v>1015</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="20">
+    <row r="22" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="26">
         <v>21</v>
       </c>
-      <c r="B22" s="20">
+      <c r="B22" s="26">
         <v>13</v>
       </c>
-      <c r="C22" s="24" t="s">
+      <c r="C22" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="D22" s="21">
+      <c r="D22" s="23">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="20">
+    <row r="23" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="26">
         <v>22</v>
       </c>
-      <c r="B23" s="20">
+      <c r="B23" s="26">
         <v>13</v>
       </c>
-      <c r="C23" s="24" t="s">
+      <c r="C23" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="D23" s="21">
+      <c r="D23" s="23">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="20">
+    <row r="24" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="26">
         <v>23</v>
       </c>
-      <c r="B24" s="20">
+      <c r="B24" s="26">
+        <v>13</v>
+      </c>
+      <c r="C24" s="29" t="s">
+        <v>166</v>
+      </c>
+      <c r="D24" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="26">
+        <v>24</v>
+      </c>
+      <c r="B25" s="26">
+        <v>13</v>
+      </c>
+      <c r="C25" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="D25" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="26">
+        <v>13</v>
+      </c>
+      <c r="C26" s="29" t="s">
+        <v>168</v>
+      </c>
+      <c r="D26" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="26">
+        <v>26</v>
+      </c>
+      <c r="B27" s="26">
+        <v>13</v>
+      </c>
+      <c r="C27" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="D27" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="26">
+        <v>27</v>
+      </c>
+      <c r="B28" s="26">
+        <v>13</v>
+      </c>
+      <c r="C28" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="D28" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="26">
+        <v>28</v>
+      </c>
+      <c r="B29" s="26">
+        <v>13</v>
+      </c>
+      <c r="C29" s="29" t="s">
+        <v>171</v>
+      </c>
+      <c r="D29" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="15">
+        <v>29</v>
+      </c>
+      <c r="B30" s="15">
         <v>14</v>
       </c>
-      <c r="C24" s="23" t="s">
+      <c r="C30" s="18" t="s">
         <v>141</v>
       </c>
-      <c r="D24" s="21">
+      <c r="D30" s="16">
         <v>1016</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="20">
-        <v>24</v>
-      </c>
-      <c r="B25" s="20">
+    <row r="31" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="26">
+        <v>30</v>
+      </c>
+      <c r="B31" s="26">
         <v>15</v>
       </c>
-      <c r="C25" s="24" t="s">
+      <c r="C31" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="D25" s="20">
+      <c r="D31" s="26">
         <v>1017</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="20">
-        <v>25</v>
-      </c>
-      <c r="B26" s="20">
+    <row r="32" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="26">
+        <v>31</v>
+      </c>
+      <c r="B32" s="26">
         <v>16</v>
       </c>
-      <c r="C26" s="24" t="s">
+      <c r="C32" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="D26" s="21">
+      <c r="D32" s="23">
         <v>1018</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A27" s="20">
-        <v>26</v>
-      </c>
-      <c r="B27" s="20">
+    <row r="33" spans="1:6" s="27" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A33" s="26">
+        <v>32</v>
+      </c>
+      <c r="B33" s="26">
         <v>17</v>
       </c>
-      <c r="C27" s="24" t="s">
-        <v>152</v>
-      </c>
-      <c r="D27" s="20">
+      <c r="C33" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="D33" s="26">
         <v>0</v>
       </c>
-      <c r="F27" s="28"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="20">
-        <v>27</v>
-      </c>
-      <c r="B28" s="20">
+      <c r="F33" s="33"/>
+    </row>
+    <row r="34" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="26">
+        <v>33</v>
+      </c>
+      <c r="B34" s="26">
         <v>17</v>
       </c>
-      <c r="C28" s="24" t="s">
+      <c r="C34" s="29" t="s">
+        <v>153</v>
+      </c>
+      <c r="D34" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="26">
+        <v>34</v>
+      </c>
+      <c r="B35" s="26">
+        <v>17</v>
+      </c>
+      <c r="C35" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="D35" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="26">
+        <v>35</v>
+      </c>
+      <c r="B36" s="26">
+        <v>17</v>
+      </c>
+      <c r="C36" s="29" t="s">
+        <v>155</v>
+      </c>
+      <c r="D36" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="26">
+        <v>36</v>
+      </c>
+      <c r="B37" s="26">
+        <v>17</v>
+      </c>
+      <c r="C37" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="D28" s="20">
+      <c r="D37" s="26">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="20">
-        <v>28</v>
-      </c>
-      <c r="B29" s="20">
+    <row r="38" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="26">
+        <v>37</v>
+      </c>
+      <c r="B38" s="26">
         <v>17</v>
       </c>
-      <c r="C29" s="24" t="s">
+      <c r="C38" s="29" t="s">
         <v>157</v>
       </c>
-      <c r="D29" s="20">
+      <c r="D38" s="26">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="20">
-        <v>29</v>
-      </c>
-      <c r="B30" s="20">
+    <row r="39" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="26">
+        <v>38</v>
+      </c>
+      <c r="B39" s="26">
         <v>17</v>
       </c>
-      <c r="C30" s="24" t="s">
-        <v>158</v>
-      </c>
-      <c r="D30" s="20">
+      <c r="C39" s="29" t="s">
+        <v>159</v>
+      </c>
+      <c r="D39" s="26">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="20">
-        <v>30</v>
-      </c>
-      <c r="B31" s="20">
+    <row r="40" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="26">
+        <v>39</v>
+      </c>
+      <c r="B40" s="26">
         <v>17</v>
       </c>
-      <c r="C31" s="24" t="s">
-        <v>159</v>
-      </c>
-      <c r="D31" s="20">
+      <c r="C40" s="29" t="s">
+        <v>160</v>
+      </c>
+      <c r="D40" s="26">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="20">
-        <v>31</v>
-      </c>
-      <c r="B32" s="20">
+    <row r="41" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="26">
+        <v>40</v>
+      </c>
+      <c r="B41" s="26">
         <v>17</v>
       </c>
-      <c r="C32" s="24" t="s">
-        <v>160</v>
-      </c>
-      <c r="D32" s="20">
+      <c r="C41" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="D41" s="26">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="20">
-        <v>32</v>
-      </c>
-      <c r="B33" s="20">
-        <v>17</v>
-      </c>
-      <c r="C33" s="24" t="s">
+    <row r="42" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="26">
+        <v>41</v>
+      </c>
+      <c r="B42" s="26">
+        <v>18</v>
+      </c>
+      <c r="C42" s="29" t="s">
         <v>162</v>
       </c>
-      <c r="D33" s="20">
+      <c r="D42" s="23">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="20">
-        <v>33</v>
-      </c>
-      <c r="B34" s="20">
-        <v>17</v>
-      </c>
-      <c r="C34" s="24" t="s">
-        <v>163</v>
-      </c>
-      <c r="D34" s="20">
+    <row r="43" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="15">
+        <v>42</v>
+      </c>
+      <c r="B43" s="15">
+        <v>19</v>
+      </c>
+      <c r="C43" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="D43" s="15">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="15">
+        <v>43</v>
+      </c>
+      <c r="B44" s="15">
+        <v>20</v>
+      </c>
+      <c r="C44" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D44" s="20">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="15">
+        <v>44</v>
+      </c>
+      <c r="B45" s="15">
+        <v>21</v>
+      </c>
+      <c r="C45" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D45" s="16">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="20">
-        <v>34</v>
-      </c>
-      <c r="B35" s="20">
-        <v>17</v>
-      </c>
-      <c r="C35" s="24" t="s">
-        <v>164</v>
-      </c>
-      <c r="D35" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="20">
-        <v>35</v>
-      </c>
-      <c r="B36" s="20">
-        <v>18</v>
-      </c>
-      <c r="C36" s="24" t="s">
-        <v>165</v>
-      </c>
-      <c r="D36" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="20">
-        <v>36</v>
-      </c>
-      <c r="B37" s="20">
-        <v>19</v>
-      </c>
-      <c r="C37" s="24" t="s">
-        <v>149</v>
-      </c>
-      <c r="D37" s="20">
-        <v>1019</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B38"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B39"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B40"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B41"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B42" s="27"/>
-      <c r="C42" s="27"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B43"/>
+    <row r="46" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="15">
+        <v>45</v>
+      </c>
+      <c r="B46" s="15">
+        <v>22</v>
+      </c>
+      <c r="C46" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="D46" s="20">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="15">
+        <v>46</v>
+      </c>
+      <c r="B47" s="15">
+        <v>23</v>
+      </c>
+      <c r="C47" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D47" s="20">
+        <v>1022</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -4351,10 +4818,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:XFD22"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4550,7 +5017,7 @@
       <c r="B11" s="6">
         <v>1010</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="14" t="s">
         <v>142</v>
       </c>
       <c r="D11" s="9" t="s">
@@ -4633,92 +5100,152 @@
       </c>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="21">
+    <row r="16" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="16">
         <v>15</v>
       </c>
-      <c r="B16" s="21">
+      <c r="B16" s="16">
         <v>1015</v>
       </c>
-      <c r="C16" s="24" t="s">
+      <c r="C16" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="D16" s="24" t="s">
+      <c r="D16" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="E16" s="20">
+      <c r="E16" s="15">
         <v>2</v>
       </c>
-      <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="21">
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+    </row>
+    <row r="17" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="16">
         <v>16</v>
       </c>
-      <c r="B17" s="21">
+      <c r="B17" s="16">
         <v>1016</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="D17" s="20" t="s">
+      <c r="D17" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="E17" s="20">
+      <c r="E17" s="15">
         <v>2</v>
       </c>
-      <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="21">
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+    </row>
+    <row r="18" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="23">
         <v>17</v>
       </c>
-      <c r="B18" s="20">
+      <c r="B18" s="26">
         <v>1017</v>
       </c>
-      <c r="C18" s="23" t="s">
+      <c r="C18" s="28" t="s">
         <v>144</v>
       </c>
-      <c r="D18" s="25" t="s">
-        <v>146</v>
-      </c>
-      <c r="E18" s="20">
+      <c r="D18" s="30" t="s">
+        <v>165</v>
+      </c>
+      <c r="E18" s="26">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="21">
+      <c r="F18" s="26"/>
+    </row>
+    <row r="19" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="23">
         <v>18</v>
       </c>
-      <c r="B19" s="21">
+      <c r="B19" s="23">
         <v>1018</v>
       </c>
-      <c r="C19" s="23" t="s">
+      <c r="C19" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="D19" s="25" t="s">
+      <c r="D19" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="E19" s="20">
+      <c r="E19" s="26">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="21">
+      <c r="F19" s="26"/>
+    </row>
+    <row r="20" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="16">
         <v>19</v>
       </c>
-      <c r="B20" s="21">
+      <c r="B20" s="16">
         <v>1019</v>
       </c>
-      <c r="C20" s="23" t="s">
-        <v>150</v>
-      </c>
-      <c r="D20" s="20">
+      <c r="C20" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="D20" s="15">
         <v>600</v>
       </c>
-      <c r="E20" s="20">
+      <c r="E20" s="15">
         <v>3</v>
       </c>
+      <c r="F20" s="15"/>
+    </row>
+    <row r="21" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="16">
+        <v>20</v>
+      </c>
+      <c r="B21" s="16">
+        <v>1020</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="E21" s="15">
+        <v>2</v>
+      </c>
+      <c r="F21" s="15"/>
+    </row>
+    <row r="22" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="16">
+        <v>21</v>
+      </c>
+      <c r="B22" s="16">
+        <v>1021</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="E22" s="15">
+        <v>2</v>
+      </c>
+      <c r="F22" s="15"/>
+    </row>
+    <row r="23" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="16">
+        <v>22</v>
+      </c>
+      <c r="B23" s="16">
+        <v>1022</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="E23" s="15">
+        <v>2</v>
+      </c>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -4729,10 +5256,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4751,617 +5278,699 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="5" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="35" t="s">
         <v>83</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="35" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="21">
-        <v>1</v>
-      </c>
-      <c r="B2" s="21">
+    <row r="2" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="16">
+        <v>1</v>
+      </c>
+      <c r="B2" s="16">
         <v>1001</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="D2" s="21">
-        <v>8000</v>
-      </c>
-      <c r="E2" s="21">
-        <v>1</v>
-      </c>
-      <c r="H2" s="6" t="s">
+      <c r="D2" s="16">
+        <v>100</v>
+      </c>
+      <c r="E2" s="16">
+        <v>1</v>
+      </c>
+      <c r="H2" s="16" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="21">
+    <row r="3" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="16">
         <v>2</v>
       </c>
-      <c r="B3" s="21">
+      <c r="B3" s="16">
         <v>1001</v>
       </c>
-      <c r="C3" s="26" t="s">
-        <v>166</v>
-      </c>
-      <c r="D3" s="21">
+      <c r="C3" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="D3" s="16">
+        <v>10</v>
+      </c>
+      <c r="E3" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="16">
+        <v>3</v>
+      </c>
+      <c r="B4" s="23">
+        <v>1002</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" s="23">
+        <v>2500</v>
+      </c>
+      <c r="E4" s="23">
+        <v>1</v>
+      </c>
+      <c r="F4" s="23"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="I4" s="16"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="16">
+        <v>4</v>
+      </c>
+      <c r="B5" s="23">
+        <v>1002</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5" s="23">
+        <v>30</v>
+      </c>
+      <c r="E5" s="23">
+        <v>1</v>
+      </c>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="I5" s="36" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="16">
+        <v>5</v>
+      </c>
+      <c r="B6" s="23">
+        <v>1003</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" s="23">
+        <v>10000</v>
+      </c>
+      <c r="E6" s="23">
+        <v>1</v>
+      </c>
+      <c r="H6" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="I6" s="36"/>
+    </row>
+    <row r="7" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="16">
+        <v>6</v>
+      </c>
+      <c r="B7" s="23">
+        <v>1003</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="D7" s="23">
+        <v>30</v>
+      </c>
+      <c r="E7" s="23">
+        <v>1</v>
+      </c>
+      <c r="H7" s="36" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="16">
+        <v>7</v>
+      </c>
+      <c r="B8" s="23">
+        <v>1004</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="D8" s="23">
+        <v>2000</v>
+      </c>
+      <c r="E8" s="23">
+        <v>1</v>
+      </c>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="16">
+        <v>8</v>
+      </c>
+      <c r="B9" s="23">
+        <v>1004</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" s="23">
+        <v>30</v>
+      </c>
+      <c r="E9" s="23">
+        <v>1</v>
+      </c>
+      <c r="F9" s="25"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+    </row>
+    <row r="10" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="16">
+        <v>9</v>
+      </c>
+      <c r="B10" s="16">
+        <v>1005</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="D10" s="16">
+        <v>10000</v>
+      </c>
+      <c r="E10" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="16">
+        <v>10</v>
+      </c>
+      <c r="B11" s="16">
+        <v>1005</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="D11" s="16">
+        <v>30</v>
+      </c>
+      <c r="E11" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="16">
+        <v>11</v>
+      </c>
+      <c r="B12" s="23">
+        <v>1006</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="D12" s="23">
+        <v>3500</v>
+      </c>
+      <c r="E12" s="23">
+        <v>1</v>
+      </c>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="16">
+        <v>12</v>
+      </c>
+      <c r="B13" s="23">
+        <v>1006</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="D13" s="23">
+        <v>40</v>
+      </c>
+      <c r="E13" s="23">
+        <v>1</v>
+      </c>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="16">
+        <v>13</v>
+      </c>
+      <c r="B14" s="23">
+        <v>1007</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="D14" s="23">
+        <v>2500</v>
+      </c>
+      <c r="E14" s="23">
+        <v>1</v>
+      </c>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="16">
+        <v>14</v>
+      </c>
+      <c r="B15" s="23">
+        <v>1007</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="D15" s="23">
+        <v>30</v>
+      </c>
+      <c r="E15" s="23">
+        <v>1</v>
+      </c>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+    </row>
+    <row r="16" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="16">
+        <v>1008</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="D16" s="16">
+        <v>30</v>
+      </c>
+      <c r="E16" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="16">
+        <v>16</v>
+      </c>
+      <c r="B17" s="16">
+        <v>1008</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="D17" s="16">
+        <v>50</v>
+      </c>
+      <c r="E17" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="16">
+        <v>17</v>
+      </c>
+      <c r="B18" s="16">
+        <v>1009</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" s="16">
+        <v>5000</v>
+      </c>
+      <c r="E18" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="16">
+        <v>18</v>
+      </c>
+      <c r="B19" s="16">
+        <v>1009</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="D19" s="16">
         <v>20</v>
       </c>
-      <c r="E3" s="21">
-        <v>1</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="21">
-        <v>3</v>
-      </c>
-      <c r="B4" s="21">
-        <f>B2+1</f>
-        <v>1002</v>
-      </c>
-      <c r="C4" s="21" t="s">
+      <c r="E19" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="16">
+        <v>19</v>
+      </c>
+      <c r="B20" s="16">
+        <v>1010</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="D20" s="16">
+        <v>5000</v>
+      </c>
+      <c r="E20" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="16">
+        <v>20</v>
+      </c>
+      <c r="B21" s="16">
+        <v>1010</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="D21" s="16">
+        <v>20</v>
+      </c>
+      <c r="E21" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="16">
+        <v>21</v>
+      </c>
+      <c r="B22" s="16">
+        <v>1011</v>
+      </c>
+      <c r="C22" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="D4" s="21">
-        <v>25000</v>
-      </c>
-      <c r="E4" s="21">
-        <v>1</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="21">
-        <v>4</v>
-      </c>
-      <c r="B5" s="21">
-        <f t="shared" ref="B5:B23" si="0">B3+1</f>
-        <v>1002</v>
-      </c>
-      <c r="C5" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="D5" s="21">
+      <c r="D22" s="16">
+        <v>10000</v>
+      </c>
+      <c r="E22" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="16">
+        <v>22</v>
+      </c>
+      <c r="B23" s="16">
+        <v>1011</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="D23" s="16">
         <v>30</v>
       </c>
-      <c r="E5" s="21">
-        <v>1</v>
-      </c>
-      <c r="H5" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="I5" s="8"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="21">
-        <v>5</v>
-      </c>
-      <c r="B6" s="21">
-        <f t="shared" si="0"/>
-        <v>1003</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="D6" s="21">
-        <v>15000</v>
-      </c>
-      <c r="E6" s="21">
-        <v>1</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="21">
-        <v>6</v>
-      </c>
-      <c r="B7" s="21">
-        <f t="shared" si="0"/>
-        <v>1003</v>
-      </c>
-      <c r="C7" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="D7" s="21">
-        <v>20</v>
-      </c>
-      <c r="E7" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="21">
-        <v>7</v>
-      </c>
-      <c r="B8" s="21">
-        <f t="shared" si="0"/>
-        <v>1004</v>
-      </c>
-      <c r="C8" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="D8" s="21">
-        <v>20000</v>
-      </c>
-      <c r="E8" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="21">
-        <v>8</v>
-      </c>
-      <c r="B9" s="21">
-        <f t="shared" si="0"/>
-        <v>1004</v>
-      </c>
-      <c r="C9" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="D9" s="21">
+      <c r="E23" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="16">
+        <v>23</v>
+      </c>
+      <c r="B24" s="16">
+        <v>1012</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="D24" s="16">
         <v>30</v>
       </c>
-      <c r="E9" s="21">
-        <v>1</v>
-      </c>
-      <c r="F9" s="7"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="21">
-        <v>9</v>
-      </c>
-      <c r="B10" s="21">
-        <f t="shared" si="0"/>
-        <v>1005</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="D10" s="21">
-        <v>25000</v>
-      </c>
-      <c r="E10" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="21">
+      <c r="E24" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="16">
+        <v>24</v>
+      </c>
+      <c r="B25" s="16">
+        <v>1012</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="D25" s="16">
+        <v>30</v>
+      </c>
+      <c r="E25" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="16">
+        <v>25</v>
+      </c>
+      <c r="B26" s="23">
+        <v>2001</v>
+      </c>
+      <c r="C26" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="D26" s="23">
+        <v>5000</v>
+      </c>
+      <c r="E26" s="23">
+        <v>1</v>
+      </c>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="23"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="16">
+        <v>26</v>
+      </c>
+      <c r="B27" s="23">
+        <v>2001</v>
+      </c>
+      <c r="C27" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="D27" s="23">
+        <v>2</v>
+      </c>
+      <c r="E27" s="23">
+        <v>1</v>
+      </c>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="23"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="16">
+        <v>27</v>
+      </c>
+      <c r="B28" s="23">
+        <v>2002</v>
+      </c>
+      <c r="C28" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="D28" s="23">
+        <v>10000</v>
+      </c>
+      <c r="E28" s="23">
+        <v>1</v>
+      </c>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="23"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="16">
+        <v>28</v>
+      </c>
+      <c r="B29" s="23">
+        <v>2002</v>
+      </c>
+      <c r="C29" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="D29" s="23">
+        <v>1</v>
+      </c>
+      <c r="E29" s="23">
+        <v>1</v>
+      </c>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="23"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="16">
+        <v>29</v>
+      </c>
+      <c r="B30" s="23">
+        <v>2003</v>
+      </c>
+      <c r="C30" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="D30" s="23">
+        <v>10000</v>
+      </c>
+      <c r="E30" s="23">
+        <v>1</v>
+      </c>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="23"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="16">
+        <v>30</v>
+      </c>
+      <c r="B31" s="23">
+        <v>2003</v>
+      </c>
+      <c r="C31" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="D31" s="23">
+        <v>10000</v>
+      </c>
+      <c r="E31" s="23">
+        <v>1</v>
+      </c>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="23"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="16">
+        <v>31</v>
+      </c>
+      <c r="B32" s="23">
+        <v>2004</v>
+      </c>
+      <c r="C32" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="D32" s="23">
+        <v>10000</v>
+      </c>
+      <c r="E32" s="23">
+        <v>1</v>
+      </c>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="23"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="16">
+        <v>32</v>
+      </c>
+      <c r="B33" s="23">
+        <v>2004</v>
+      </c>
+      <c r="C33" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="D33" s="23">
         <v>10</v>
       </c>
-      <c r="B11" s="21">
-        <f t="shared" si="0"/>
-        <v>1005</v>
-      </c>
-      <c r="C11" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="D11" s="21">
-        <v>20</v>
-      </c>
-      <c r="E11" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="21">
-        <v>11</v>
-      </c>
-      <c r="B12" s="21">
-        <f t="shared" si="0"/>
-        <v>1006</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="D12" s="21">
-        <v>35000</v>
-      </c>
-      <c r="E12" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="21">
-        <v>12</v>
-      </c>
-      <c r="B13" s="21">
-        <f t="shared" si="0"/>
-        <v>1006</v>
-      </c>
-      <c r="C13" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="D13" s="21">
-        <v>40</v>
-      </c>
-      <c r="E13" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="21">
-        <v>13</v>
-      </c>
-      <c r="B14" s="21">
-        <f t="shared" si="0"/>
-        <v>1007</v>
-      </c>
-      <c r="C14" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="D14" s="21">
-        <v>25000</v>
-      </c>
-      <c r="E14" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="21">
-        <v>14</v>
-      </c>
-      <c r="B15" s="21">
-        <f t="shared" si="0"/>
-        <v>1007</v>
-      </c>
-      <c r="C15" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="D15" s="21">
+      <c r="E33" s="23">
+        <v>1</v>
+      </c>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="23"/>
+      <c r="I33" s="23"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="16">
+        <v>33</v>
+      </c>
+      <c r="B34" s="23">
+        <v>2005</v>
+      </c>
+      <c r="C34" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="D34" s="23">
+        <v>30000</v>
+      </c>
+      <c r="E34" s="23">
+        <v>1</v>
+      </c>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="23"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="16">
+        <v>34</v>
+      </c>
+      <c r="B35" s="23">
+        <v>2005</v>
+      </c>
+      <c r="C35" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="D35" s="23">
         <v>30</v>
       </c>
-      <c r="E15" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="21">
-        <v>15</v>
-      </c>
-      <c r="B16" s="21">
-        <f t="shared" si="0"/>
-        <v>1008</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="D16" s="21">
-        <v>50000</v>
-      </c>
-      <c r="E16" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="21">
-        <v>16</v>
-      </c>
-      <c r="B17" s="21">
-        <f t="shared" si="0"/>
-        <v>1008</v>
-      </c>
-      <c r="C17" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="D17" s="21">
-        <v>60</v>
-      </c>
-      <c r="E17" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="6">
-        <v>17</v>
-      </c>
-      <c r="B18" s="6">
-        <f t="shared" si="0"/>
-        <v>1009</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="D18" s="6">
-        <v>1</v>
-      </c>
-      <c r="E18" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="6">
-        <v>18</v>
-      </c>
-      <c r="B19" s="6">
-        <f t="shared" si="0"/>
-        <v>1009</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="D19" s="6">
-        <v>1</v>
-      </c>
-      <c r="E19" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="6">
-        <v>19</v>
-      </c>
-      <c r="B20" s="6">
-        <f t="shared" si="0"/>
-        <v>1010</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="D20" s="6">
-        <v>1</v>
-      </c>
-      <c r="E20" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="6">
-        <v>20</v>
-      </c>
-      <c r="B21" s="6">
-        <f t="shared" si="0"/>
-        <v>1010</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="D21" s="6">
-        <v>1</v>
-      </c>
-      <c r="E21" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="6">
-        <v>21</v>
-      </c>
-      <c r="B22" s="6">
-        <f t="shared" si="0"/>
-        <v>1011</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="D22" s="6">
-        <v>1</v>
-      </c>
-      <c r="E22" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="6">
-        <v>22</v>
-      </c>
-      <c r="B23" s="6">
-        <f t="shared" si="0"/>
-        <v>1011</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="D23" s="6">
-        <v>1</v>
-      </c>
-      <c r="E23" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="21">
-        <v>23</v>
-      </c>
-      <c r="B24" s="21">
-        <v>2001</v>
-      </c>
-      <c r="C24" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="D24" s="21">
-        <v>20000</v>
-      </c>
-      <c r="E24" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="21">
-        <v>24</v>
-      </c>
-      <c r="B25" s="21">
-        <v>2001</v>
-      </c>
-      <c r="C25" s="26" t="s">
-        <v>167</v>
-      </c>
-      <c r="D25" s="21">
-        <v>2</v>
-      </c>
-      <c r="E25" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="21">
-        <v>25</v>
-      </c>
-      <c r="B26" s="21">
-        <v>2002</v>
-      </c>
-      <c r="C26" s="22" t="s">
-        <v>148</v>
-      </c>
-      <c r="D26" s="21">
-        <v>10</v>
-      </c>
-      <c r="E26" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="21">
-        <v>26</v>
-      </c>
-      <c r="B27" s="21">
-        <v>2002</v>
-      </c>
-      <c r="C27" s="26" t="s">
-        <v>169</v>
-      </c>
-      <c r="D27" s="21">
-        <v>50000</v>
-      </c>
-      <c r="E27" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="21">
-        <v>27</v>
-      </c>
-      <c r="B28" s="21">
-        <v>2003</v>
-      </c>
-      <c r="C28" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="D28" s="21">
-        <v>50000</v>
-      </c>
-      <c r="E28" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="21">
-        <v>28</v>
-      </c>
-      <c r="B29" s="21">
-        <v>2003</v>
-      </c>
-      <c r="C29" s="26" t="s">
-        <v>172</v>
-      </c>
-      <c r="D29" s="21">
-        <v>3</v>
-      </c>
-      <c r="E29" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="21">
-        <v>29</v>
-      </c>
-      <c r="B30" s="21">
-        <v>2004</v>
-      </c>
-      <c r="C30" s="22" t="s">
-        <v>148</v>
-      </c>
-      <c r="D30" s="21">
-        <v>20</v>
-      </c>
-      <c r="E30" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="21">
-        <v>30</v>
-      </c>
-      <c r="B31" s="21">
-        <v>2004</v>
-      </c>
-      <c r="C31" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="D31" s="21">
-        <v>100000</v>
-      </c>
-      <c r="E31" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="21">
-        <v>31</v>
-      </c>
-      <c r="B32" s="21">
-        <v>2005</v>
-      </c>
-      <c r="C32" s="22" t="s">
-        <v>151</v>
-      </c>
-      <c r="D32" s="21">
-        <v>100000</v>
-      </c>
-      <c r="E32" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="21">
-        <v>32</v>
-      </c>
-      <c r="B33" s="21">
-        <v>2005</v>
-      </c>
-      <c r="C33" s="26" t="s">
-        <v>171</v>
-      </c>
-      <c r="D33" s="21">
-        <v>100000</v>
-      </c>
-      <c r="E33" s="21">
-        <v>1</v>
-      </c>
+      <c r="E35" s="23">
+        <v>1</v>
+      </c>
+      <c r="F35" s="23"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="23"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
